--- a/InputData/elec/PMCCS/Pol Mandated Cap Const Sched.xlsx
+++ b/InputData/elec/PMCCS/Pol Mandated Cap Const Sched.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\RMI\All_states_RMI\LA\elec\PMCCS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\RMI\All_states_RMI\template_state\elec\PMCCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{452043A7-2702-4818-AD1B-736CBD5D2400}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864B831C-F5F0-433C-B723-02E23FD45882}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15" yWindow="855" windowWidth="17205" windowHeight="16065" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11777" uniqueCount="2597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11776" uniqueCount="2596">
   <si>
     <t>PMCCS Policy Mandated Capacity Construction Schedule</t>
   </si>
@@ -7832,9 +7832,6 @@
   </si>
   <si>
     <t>This file adopts the values in BPMCCS, but subtracts any natural gas that does not already have regulatory approval.</t>
-  </si>
-  <si>
-    <t>Louisiana</t>
   </si>
 </sst>
 </file>
@@ -30669,9 +30666,6 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>2596</v>
-      </c>
       <c r="C1" s="15">
         <v>44315</v>
       </c>
